--- a/medicine/Enfance/Knud_Meister/Knud_Meister.xlsx
+++ b/medicine/Enfance/Knud_Meister/Knud_Meister.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knud Meister, né le 28 mai 1913 à Copenhague au Danemark et mort le 20 décembre 1989, est un journaliste danois et un écrivain de séries pour la jeunesse, toutes publiées en France. Il a également publié sous les pseudonymes : Lisbeth Werner, A. B. Carroll et Thomas Ketchup.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant de se consacrer à l'écriture de séries pour la jeunesse, Knud Meister travaille d'abord comme journaliste pour des magazines étrangers (en 1949, il a été correspondant pour le magazine Time à New York) et pour la radio danoise. C’est en 1941 qu'il publie, sous le pseudonyme de Thomas Ketchup, un premier roman policier[1] ; il en rédigera sept autres dans la première moitié des années 1940.
-Il entame en 1942 une collaboration avec l'auteur danois Carlo Andersen, qui durera jusqu'à sa mort. Ainsi, en 1942 paraît le premier volume d'une série policière pour garçons adolescents : Yann. Grand succès de librairie au Danemark, 81 romans seront écrits de 1942 à 1964[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de se consacrer à l'écriture de séries pour la jeunesse, Knud Meister travaille d'abord comme journaliste pour des magazines étrangers (en 1949, il a été correspondant pour le magazine Time à New York) et pour la radio danoise. C’est en 1941 qu'il publie, sous le pseudonyme de Thomas Ketchup, un premier roman policier ; il en rédigera sept autres dans la première moitié des années 1940.
+Il entame en 1942 une collaboration avec l'auteur danois Carlo Andersen, qui durera jusqu'à sa mort. Ainsi, en 1942 paraît le premier volume d'une série policière pour garçons adolescents : Yann. Grand succès de librairie au Danemark, 81 romans seront écrits de 1942 à 1964.
 Simultanément à Yann, il écrit sous le pseudonyme de Lisbeth Werner, la série Puck (1943 à 1964), qui se veut l’équivalent pour jeunes filles de Yann. Cette série connaitra également le succès.
-De 1956 à 1960, sous le pseudonyme d'A. B. Carroll[3], Knud Meister sera l'auteur d'une dernière série pour jeunes filles : Tina.
+De 1956 à 1960, sous le pseudonyme d'A. B. Carroll, Knud Meister sera l'auteur d'une dernière série pour jeunes filles : Tina.
 Ces trois séries ont été traduites en suédois, en allemand, en espagnol et en français.
 </t>
         </is>
@@ -546,17 +560,159 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(liste non exhaustive)
-Série Yann
-Quatre-vingt-un romans publiés de 1942 à 1964, dont douze volumes ont paru en France de 1973 à 1978 dans la collection Spirale des éditions G. P.
-Série Puck
-Cinquante-huit romans publiés sous le pseudonyme de Lisbeth Werner de 1943 à 1964, dont vingt et un titres ont paru en France de 1956 à 1978 dans la collection Rouge et Or.
-Série Tina
-Quatorze romans publiés sous le pseudonyme d’A. B. Carroll de 1956 à 1960, dont onze titres ont paru de 1962 à 1969 dans la collection Spirale aux éditions G. P..
-Romans, nouvelles, et autres écrits
-1941 : Dr. Whisky : Kriminalroman, sous le pseudonym de Thomas Ketchup, en collaboration avec Kjeld Helweg-Larsen.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste non exhaustive)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Knud_Meister</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knud_Meister</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Yann</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre-vingt-un romans publiés de 1942 à 1964, dont douze volumes ont paru en France de 1973 à 1978 dans la collection Spirale des éditions G. P.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Knud_Meister</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knud_Meister</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Puck</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinquante-huit romans publiés sous le pseudonyme de Lisbeth Werner de 1943 à 1964, dont vingt et un titres ont paru en France de 1956 à 1978 dans la collection Rouge et Or.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Knud_Meister</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knud_Meister</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Tina</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatorze romans publiés sous le pseudonyme d’A. B. Carroll de 1956 à 1960, dont onze titres ont paru de 1962 à 1969 dans la collection Spirale aux éditions G. P..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Knud_Meister</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knud_Meister</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans, nouvelles, et autres écrits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1941 : Dr. Whisky : Kriminalroman, sous le pseudonym de Thomas Ketchup, en collaboration avec Kjeld Helweg-Larsen.
 1942 : Derby-Mordet : Kriminalroman
 1944 : Fortidens Ekko : Kriminalroman
 1945 : Danmarks lykkeligste Uge : Et Mindealbum
